--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="49">
   <si>
     <t>test.example.data.Person</t>
   </si>
@@ -57,9 +56,6 @@
     <t>nyears</t>
   </si>
   <si>
-    <t>incomeRatio</t>
-  </si>
-  <si>
     <t>FEMALE</t>
   </si>
   <si>
@@ -118,39 +114,68 @@
   </si>
   <si>
     <t>#this ons differs from sheet1</t>
+  </si>
+  <si>
+    <t>incrat</t>
+  </si>
+  <si>
+    <t>prodtyp</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>17500.0</t>
+  </si>
+  <si>
+    <t>12600.0</t>
+  </si>
+  <si>
+    <t>25200.0</t>
+  </si>
+  <si>
+    <t>30100.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -173,19 +198,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF0F0B4"/>
-        <bgColor rgb="FFFFFF99"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -195,7 +221,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -203,81 +229,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -336,33 +312,328 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+  <a:themeElements>
+    <a:clrScheme name="Kantoor">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Kantoor">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Kantoor">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:L36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1326530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="12.4081632653061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.4081632653061"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="16.7857142857143"/>
+    <col min="2" max="2" width="15.85546875"/>
+    <col min="3" max="3" width="11.5703125"/>
+    <col min="4" max="4" width="10.140625"/>
+    <col min="5" max="6" width="12.42578125"/>
+    <col min="8" max="8" width="12.42578125"/>
+    <col min="9" max="10" width="16.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -378,32 +649,35 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -412,24 +686,37 @@
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="2">
         <v>101</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="G3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -443,57 +730,75 @@
         <v>10</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="6">
         <v>1</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="6">
+        <v>300000</v>
+      </c>
+      <c r="L4" s="6">
+        <v>20</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="2">
         <v>102</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="n">
+      <c r="G5" s="6">
+        <v>2</v>
+      </c>
+      <c r="H5" s="6">
+        <v>2</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="6">
         <v>300000</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="L5" s="6">
         <v>20</v>
       </c>
-      <c r="J5" s="5" t="n">
-        <v>17500</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="M5" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>3</v>
       </c>
       <c r="D6" s="2"/>
@@ -501,55 +806,73 @@
         <v>10</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" s="2" t="n">
+      <c r="G6" s="6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="6">
+        <v>3</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="6">
         <v>300000</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="L6" s="6">
         <v>20</v>
       </c>
-      <c r="J6" s="5" t="n">
-        <v>17500</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="M6" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="2">
         <v>103</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="n">
+      <c r="G7" s="6">
+        <v>4</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="6">
         <v>300000</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="L7" s="6">
         <v>20</v>
       </c>
-      <c r="J7" s="5" t="n">
-        <v>30100</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="M7" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -559,57 +882,75 @@
         <v>10</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="H8" s="2" t="n">
+      <c r="G8" s="6">
+        <v>5</v>
+      </c>
+      <c r="H8" s="6">
+        <v>5</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="6">
         <v>300000</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="L8" s="6">
         <v>20</v>
       </c>
-      <c r="J8" s="5" t="n">
-        <v>12600</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="M8" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2">
         <v>3</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="2">
         <v>104</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2" t="n">
+      <c r="G9" s="6">
+        <v>6</v>
+      </c>
+      <c r="H9" s="6">
+        <v>6</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="6">
         <v>300000</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="L9" s="6">
         <v>20</v>
       </c>
-      <c r="J9" s="5" t="n">
-        <v>17500</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="M9" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
         <v>3</v>
       </c>
       <c r="D10" s="2"/>
@@ -617,40 +958,58 @@
         <v>10</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="H10" s="2" t="n">
+      <c r="G10" s="6">
+        <v>7</v>
+      </c>
+      <c r="H10" s="6">
+        <v>7</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="6">
         <v>300000</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="L10" s="6">
         <v>20</v>
       </c>
-      <c r="J10" s="5" t="n">
-        <v>17500</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M10" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="H11" s="2" t="n">
+      <c r="G11" s="6">
+        <v>8</v>
+      </c>
+      <c r="H11" s="6">
+        <v>8</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="6">
         <v>300000</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="L11" s="6">
         <v>20</v>
       </c>
-      <c r="J11" s="5" t="n">
-        <v>25200</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M11" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,241 +1018,169 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>300000</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="J12" s="5" t="n">
-        <v>12600</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="6"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="5"/>
+      <c r="J13" s="4"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>101</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>14</v>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="4" t="s">
-        <v>16</v>
+      <c r="D14" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>102</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>17</v>
+      <c r="D15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>103</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="4" t="s">
-        <v>18</v>
+      <c r="D16" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>104</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="2">
         <v>3</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>19</v>
+      <c r="D17" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="3"/>
+      <c r="B21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="12"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2" t="n">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="13">
         <v>340000</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="2" t="n">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="13">
         <v>250000</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -904,12 +1191,12 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -920,14 +1207,14 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="3"/>
+      <c r="B27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="12"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -938,14 +1225,14 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="13">
         <v>1</v>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="13">
         <v>45000</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -956,14 +1243,14 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="13">
         <v>2</v>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B29" s="13">
         <v>5000</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -974,14 +1261,14 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="13">
         <v>3</v>
       </c>
-      <c r="B30" s="2" t="n">
+      <c r="B30" s="13">
         <v>36000</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -992,10 +1279,10 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1006,12 +1293,12 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1022,14 +1309,14 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="2"/>
+      <c r="B33" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="13"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1040,14 +1327,14 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="13">
         <v>1</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="2"/>
+      <c r="B34" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="13"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1058,14 +1345,14 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="13">
         <v>2</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="2"/>
+      <c r="B35" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="13"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -1076,39 +1363,32 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="C36" s="14"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B3:M39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:N39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1122,7 +1402,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1136,22 +1416,22 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="7"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="3" t="s">
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="2"/>
@@ -1160,10 +1440,10 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="2" t="n">
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1172,24 +1452,25 @@
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="2">
         <v>101</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="2" t="n">
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1203,59 +1484,75 @@
         <v>10</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="M7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="2" t="n">
+      <c r="N7" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="2">
         <v>3</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="2">
         <v>102</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="6">
         <v>1</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="6">
         <v>300000</v>
       </c>
-      <c r="J8" s="2" t="n">
+      <c r="M8" s="6">
         <v>20</v>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="N8" s="9">
         <v>21000</v>
       </c>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="2" t="n">
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="2">
         <v>3</v>
       </c>
       <c r="E9" s="2"/>
@@ -1263,57 +1560,73 @@
         <v>10</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="6">
         <v>2</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="6">
+        <v>2</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="6">
         <v>300000</v>
       </c>
-      <c r="J9" s="2" t="n">
+      <c r="M9" s="6">
         <v>20</v>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="N9" s="9">
         <v>21000</v>
       </c>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="2" t="n">
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="2">
         <v>103</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>15</v>
+      <c r="F10" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="6">
         <v>3</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="6">
+        <v>3</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="6">
         <v>300000</v>
       </c>
-      <c r="J10" s="2" t="n">
+      <c r="M10" s="6">
         <v>20</v>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="N10" s="9">
         <v>33600</v>
       </c>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="2" t="n">
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>7</v>
@@ -1323,59 +1636,75 @@
         <v>10</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="6">
         <v>4</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="6">
         <v>300000</v>
       </c>
-      <c r="J11" s="2" t="n">
+      <c r="M11" s="6">
         <v>20</v>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="N11" s="9">
         <v>12600</v>
       </c>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="2" t="n">
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2">
         <v>3</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="2">
         <v>104</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="6">
         <v>5</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="6">
+        <v>5</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="6">
         <v>300000</v>
       </c>
-      <c r="J12" s="2" t="n">
+      <c r="M12" s="6">
         <v>20</v>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="N12" s="9">
         <v>21000</v>
       </c>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="2" t="n">
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
         <v>3</v>
       </c>
       <c r="E13" s="2"/>
@@ -1383,42 +1712,58 @@
         <v>10</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="6">
         <v>6</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="6">
+        <v>6</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="6">
         <v>300000</v>
       </c>
-      <c r="J13" s="2" t="n">
+      <c r="M13" s="6">
         <v>20</v>
       </c>
-      <c r="K13" s="5" t="n">
+      <c r="N13" s="9">
         <v>21000</v>
       </c>
-      <c r="M13" s="7"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="6">
         <v>7</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="6">
+        <v>7</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="6">
         <v>300000</v>
       </c>
-      <c r="J14" s="2" t="n">
+      <c r="M14" s="6">
         <v>20</v>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="N14" s="9">
         <v>25200</v>
       </c>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1427,74 +1772,79 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="6">
         <v>8</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I15" s="6">
+        <v>8</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="6">
         <v>300000</v>
       </c>
-      <c r="J15" s="2" t="n">
+      <c r="M15" s="6">
         <v>20</v>
       </c>
-      <c r="K15" s="5" t="n">
+      <c r="N15" s="9">
         <v>12600</v>
       </c>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="3" t="s">
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="6"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="5"/>
+      <c r="K16" s="4"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="2" t="n">
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
         <v>101</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>14</v>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="4" t="s">
-        <v>16</v>
+      <c r="E17" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="2" t="n">
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
         <v>102</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>17</v>
+      <c r="E18" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1503,18 +1853,18 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="2" t="n">
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="2">
         <v>103</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="4" t="s">
-        <v>18</v>
+      <c r="E19" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1523,20 +1873,20 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="2" t="n">
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
         <v>104</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" s="2">
         <v>3</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>19</v>
+      <c r="E20" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1545,13 +1895,13 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="4"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1559,9 +1909,9 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1573,11 +1923,11 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M22" s="6"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1589,16 +1939,16 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="3" t="s">
+      <c r="M23" s="6"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="3"/>
+      <c r="C24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="12"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1607,13 +1957,13 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M24" s="6"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2">
         <v>340000</v>
       </c>
       <c r="D25" s="2"/>
@@ -1625,13 +1975,13 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M25" s="6"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2">
         <v>250000</v>
       </c>
       <c r="D26" s="2"/>
@@ -1643,9 +1993,9 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M26" s="6"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1657,9 +2007,9 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M27" s="6"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1671,11 +2021,11 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M28" s="6"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1687,16 +2037,16 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="3" t="s">
+      <c r="M29" s="6"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="3"/>
+      <c r="C30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="12"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1705,18 +2055,18 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="7"/>
-    </row>
-    <row r="31" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="2" t="n">
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31" s="2">
         <v>1</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>32</v>
+      <c r="C31" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1725,13 +2075,13 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="7"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="2" t="n">
+      <c r="M31" s="6"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32" s="2">
         <v>2</v>
       </c>
-      <c r="C32" s="2" t="n">
+      <c r="C32" s="2">
         <v>5000</v>
       </c>
       <c r="D32" s="2"/>
@@ -1743,13 +2093,13 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="7"/>
-    </row>
-    <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="2" t="n">
+      <c r="M32" s="6"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33" s="2">
         <v>3</v>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="C33" s="2">
         <v>36000</v>
       </c>
       <c r="D33" s="2"/>
@@ -1761,9 +2111,9 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="7"/>
-    </row>
-    <row r="34" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M33" s="6"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1775,11 +2125,11 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="7"/>
-    </row>
-    <row r="35" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M34" s="6"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1791,14 +2141,14 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="7"/>
-    </row>
-    <row r="36" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="3" t="s">
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>27</v>
+      <c r="C36" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1809,14 +2159,14 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="7"/>
-    </row>
-    <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="2" t="n">
+      <c r="M36" s="6"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37" s="2">
         <v>1</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>28</v>
+      <c r="C37" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1829,12 +2179,12 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="2" t="n">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B38" s="2">
         <v>2</v>
       </c>
-      <c r="C38" s="0" t="s">
-        <v>29</v>
+      <c r="C38" t="s">
+        <v>28</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1846,21 +2196,16 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="4" t="s">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>31</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>